--- a/output/validator/real-results.xlsx
+++ b/output/validator/real-results.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J163"/>
+  <dimension ref="A1:J177"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -490,11 +490,11 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>LoRa setup is implemented correctly using gRPC calls, including gateway and device creation</t>
+          <t>Valid Python, functions, calls, variables, lines of code and instructions exist.</t>
         </is>
       </c>
       <c r="E2" t="n">
@@ -536,15 +536,15 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>WiFi setup is attempted using file writing instead of Fabric, and WiFi setup code is present even if there is no wifi_nodes section in blueprint, resulting in UNMATCH</t>
+          <t>LoRa setup implemented correctly via gRPC calls.</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
@@ -582,15 +582,15 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Fields in JSON blueprint match with the dictionary fields in Python source code</t>
+          <t>No WiFi description in JSON, but WiFi functions exists</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
@@ -624,15 +624,15 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>002-smart_agriculture</t>
+          <t>001-smart_agriculture</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>LoRa devices are described and correctly handled via gRPC</t>
+          <t>Correct Python functions present.</t>
         </is>
       </c>
       <c r="E5" t="n">
@@ -674,11 +674,11 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>No WiFi devices are described in the blueprint, so no WiFi implementation is expected</t>
+          <t>Correct syntax, functions, calls, and sufficient code</t>
         </is>
       </c>
       <c r="E6" t="n">
@@ -720,11 +720,11 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>The Python code uses the JSON blueprint's fields correctly, using a correct dictionary parsing</t>
+          <t>LoRa functions implemented correctly using gRPC, matching the blueprint</t>
         </is>
       </c>
       <c r="E7" t="n">
@@ -762,15 +762,15 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>003-smart_agriculture</t>
+          <t>002-smart_agriculture</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>LoRa devices described in JSON, proper gRPC calls used for LoRa setup</t>
+          <t>No WiFi required in blueprint, WiFi functions absent</t>
         </is>
       </c>
       <c r="E8" t="n">
@@ -808,15 +808,15 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>003-smart_agriculture</t>
+          <t>002-smart_agriculture</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>No WiFi devices in JSON, no WiFi functions in code</t>
+          <t>Valid Python code with functions and commands</t>
         </is>
       </c>
       <c r="E9" t="n">
@@ -858,11 +858,11 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>JSON fields match with dictionary fields in Python code</t>
+          <t>Valid Python code with functions, calls, declarations and execution</t>
         </is>
       </c>
       <c r="E10" t="n">
@@ -900,7 +900,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>001-smart_agriculture</t>
+          <t>003-smart_agriculture</t>
         </is>
       </c>
       <c r="C11" t="n">
@@ -908,20 +908,20 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>LoRa devices described in JSON, but setup not using gRPC calls</t>
+          <t>Implements LoRa setup using gRPC as required by blueprint</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>google/codegemma-7b-it</t>
+          <t>codestral-2501</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>small</t>
+          <t>large</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
@@ -946,7 +946,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>001-smart_agriculture</t>
+          <t>003-smart_agriculture</t>
         </is>
       </c>
       <c r="C12" t="n">
@@ -954,7 +954,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>No WiFi devices in JSON, but code does not implement WiFi functions</t>
+          <t>Does not implement WiFi setup and it is not required by JSON blueprint</t>
         </is>
       </c>
       <c r="E12" t="n">
@@ -962,12 +962,12 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>google/codegemma-7b-it</t>
+          <t>codestral-2501</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>small</t>
+          <t>large</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
@@ -992,7 +992,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>001-smart_agriculture</t>
+          <t>003-smart_agriculture</t>
         </is>
       </c>
       <c r="C13" t="n">
@@ -1000,20 +1000,20 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Some fields of the JSON blueprint are not in python source code</t>
+          <t>Valid Python code, implements required setup</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>google/codegemma-7b-it</t>
+          <t>codestral-2501</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>small</t>
+          <t>large</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
@@ -1038,19 +1038,19 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>002-smart_agriculture</t>
+          <t>001-smart_agriculture</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>LoRa devices described in JSON, but no LoRa setup functions found in PYTHON code</t>
+          <t>Valid Python code structure and function calls are present, but details of LoRa and WiFi are not implemented.</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
@@ -1084,19 +1084,19 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>002-smart_agriculture</t>
+          <t>001-smart_agriculture</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>No WiFi devices described in JSON, so no WiFi setup is needed, but no function is implemented in code</t>
+          <t>LoRa devices are described in the blueprint, but the provided code does not implement LoRa setup or gRPC function calls.</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
@@ -1130,15 +1130,15 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>002-smart_agriculture</t>
+          <t>001-smart_agriculture</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>JSON fields do not match with python code dictionary</t>
+          <t>WiFi devices are not described in the blueprint, and no WiFi functions should be implemented. The code has LoRa but is not correctly implemented.</t>
         </is>
       </c>
       <c r="E16" t="n">
@@ -1176,15 +1176,15 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>003-smart_agriculture</t>
+          <t>001-smart_agriculture</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>LoRa devices described in JSON blueprint, but no LoRa setup functions in python code</t>
+          <t>The blueprint contains LoRa. The python code contains LoRa code with LoRa settings and configurations, but fails on gRPC or Framework implementation.</t>
         </is>
       </c>
       <c r="E17" t="n">
@@ -1222,15 +1222,15 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>003-smart_agriculture</t>
+          <t>002-smart_agriculture</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>No WiFi devices in JSON blueprint, and no WiFi functions are used in python code</t>
+          <t>Valid Python code, defines functions, calls, variable declarations, and contains function execution</t>
         </is>
       </c>
       <c r="E18" t="n">
@@ -1268,19 +1268,19 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>003-smart_agriculture</t>
+          <t>002-smart_agriculture</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>JSON blueprint fields do not match python dictionary fields, python code uses only basic dictionary creation</t>
+          <t>Blueprint describes LoRa, code implements LoRa setup using correct functions</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
@@ -1314,23 +1314,23 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>001-smart_agriculture</t>
+          <t>002-smart_agriculture</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>LoRa devices described, gRPC function calls are NOT used</t>
+          <t>Blueprint does not mention WiFi devices, code does not implement WiFi functions.</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>codellama/CodeLlama-7b-Instruct-hf</t>
+          <t>google/codegemma-7b-it</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
@@ -1360,15 +1360,15 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>001-smart_agriculture</t>
+          <t>002-smart_agriculture</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>WiFi devices NOT described, no WiFi function is present</t>
+          <t>Valid Python code with correct functions and commands.</t>
         </is>
       </c>
       <c r="E21" t="n">
@@ -1376,7 +1376,7 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>codellama/CodeLlama-7b-Instruct-hf</t>
+          <t>google/codegemma-7b-it</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
@@ -1406,15 +1406,15 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>001-smart_agriculture</t>
+          <t>003-smart_agriculture</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>fields in JSON blueprint does not match with fields in Python source code</t>
+          <t>The code only contains JSON objects and lacks any Python syntax</t>
         </is>
       </c>
       <c r="E22" t="n">
@@ -1422,7 +1422,7 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>codellama/CodeLlama-7b-Instruct-hf</t>
+          <t>google/codegemma-7b-it</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
@@ -1452,7 +1452,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>002-smart_agriculture</t>
+          <t>003-smart_agriculture</t>
         </is>
       </c>
       <c r="C23" t="n">
@@ -1460,15 +1460,15 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>LoRa devices described in JSON,  gRPC calls not found</t>
+          <t>No LoRa code implementation despite LoRa devices described in blueprint</t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>codellama/CodeLlama-7b-Instruct-hf</t>
+          <t>google/codegemma-7b-it</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
@@ -1498,7 +1498,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>002-smart_agriculture</t>
+          <t>003-smart_agriculture</t>
         </is>
       </c>
       <c r="C24" t="n">
@@ -1506,15 +1506,15 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>WiFi devices not described in JSON and no WiFi function are present</t>
+          <t>No WiFi code implementation despite WiFi devices described in blueprint</t>
         </is>
       </c>
       <c r="E24" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>codellama/CodeLlama-7b-Instruct-hf</t>
+          <t>google/codegemma-7b-it</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
@@ -1544,7 +1544,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>002-smart_agriculture</t>
+          <t>003-smart_agriculture</t>
         </is>
       </c>
       <c r="C25" t="n">
@@ -1552,7 +1552,7 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>JSON fields does not match with dictionary in code</t>
+          <t>No correct Python functions or commands found</t>
         </is>
       </c>
       <c r="E25" t="n">
@@ -1560,7 +1560,7 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>codellama/CodeLlama-7b-Instruct-hf</t>
+          <t>google/codegemma-7b-it</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
@@ -1590,19 +1590,19 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>003-smart_agriculture</t>
+          <t>001-smart_agriculture</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>LoRa setup not using gRPC calls</t>
+          <t>Basic Python structure validation</t>
         </is>
       </c>
       <c r="E26" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
@@ -1636,15 +1636,15 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>003-smart_agriculture</t>
+          <t>001-smart_agriculture</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>No WiFi devices described in JSON</t>
+          <t>LoRa setup and function implementation based on blueprint</t>
         </is>
       </c>
       <c r="E27" t="n">
@@ -1682,19 +1682,19 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>003-smart_agriculture</t>
+          <t>001-smart_agriculture</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>JSON fields do not fully match with dictionary</t>
+          <t>No WiFi devices required, hence no need for WiFi functions</t>
         </is>
       </c>
       <c r="E28" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
@@ -1732,11 +1732,11 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>LoRa devices described in JSON and gRPC used</t>
+          <t>General code correctness and function availability</t>
         </is>
       </c>
       <c r="E29" t="n">
@@ -1744,12 +1744,12 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>mistral-large-2411</t>
+          <t>codellama/CodeLlama-7b-Instruct-hf</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>large</t>
+          <t>small</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
@@ -1774,15 +1774,15 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>001-smart_agriculture</t>
+          <t>002-smart_agriculture</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>WiFi devices are not described in JSON, but Python code provides WiFi code</t>
+          <t>Basic code structure and syntax check</t>
         </is>
       </c>
       <c r="E30" t="n">
@@ -1790,12 +1790,12 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>mistral-large-2411</t>
+          <t>codellama/CodeLlama-7b-Instruct-hf</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>large</t>
+          <t>small</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
@@ -1820,28 +1820,28 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>001-smart_agriculture</t>
+          <t>002-smart_agriculture</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>JSON fields match with dictionary field in Python code</t>
+          <t>LoRa functionality implementation</t>
         </is>
       </c>
       <c r="E31" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>mistral-large-2411</t>
+          <t>codellama/CodeLlama-7b-Instruct-hf</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>large</t>
+          <t>small</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
@@ -1870,24 +1870,24 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>LoRa devices described, gRPC used, no WiFi parameters</t>
+          <t>WiFi functionality implementation</t>
         </is>
       </c>
       <c r="E32" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>mistral-large-2411</t>
+          <t>codellama/CodeLlama-7b-Instruct-hf</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>large</t>
+          <t>small</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
@@ -1916,11 +1916,11 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>WiFi devices described, no Fabric, simple file writing used</t>
+          <t>General Python code correctness</t>
         </is>
       </c>
       <c r="E33" t="n">
@@ -1928,12 +1928,12 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>mistral-large-2411</t>
+          <t>codellama/CodeLlama-7b-Instruct-hf</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>large</t>
+          <t>small</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
@@ -1958,28 +1958,28 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>002-smart_agriculture</t>
+          <t>003-smart_agriculture</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>JSON fields match with dict keys in python code</t>
+          <t>The code does not exist, thus it's not possible to evaluate syntax or function definition.</t>
         </is>
       </c>
       <c r="E34" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>mistral-large-2411</t>
+          <t>codellama/CodeLlama-7b-Instruct-hf</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>large</t>
+          <t>small</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
@@ -2012,20 +2012,20 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>LoRa devices are correctly configured using gRPC calls, and no WiFi parameters are used.</t>
+          <t>The code does not exist, thus it's not possible to evaluate LoRa implementation.</t>
         </is>
       </c>
       <c r="E35" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>mistral-large-2411</t>
+          <t>codellama/CodeLlama-7b-Instruct-hf</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>large</t>
+          <t>small</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
@@ -2058,7 +2058,7 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>WiFi setup is implemented using file writing, not the Fabric Framework</t>
+          <t>The code does not exist, thus it's not possible to evaluate WiFi implementation.</t>
         </is>
       </c>
       <c r="E36" t="n">
@@ -2066,12 +2066,12 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>mistral-large-2411</t>
+          <t>codellama/CodeLlama-7b-Instruct-hf</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>large</t>
+          <t>small</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
@@ -2104,20 +2104,20 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>All fields in the JSON Blueprint for LoRa devices match the fields in the Python code's dictionary creation, but WiFi configuration  fields not</t>
+          <t>The code does not exist, thus it's not possible to evaluate the presence of any correct functions.</t>
         </is>
       </c>
       <c r="E37" t="n">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>mistral-large-2411</t>
+          <t>codellama/CodeLlama-7b-Instruct-hf</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>large</t>
+          <t>small</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
@@ -2146,11 +2146,11 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>LoRa devices are described in the JSON and the python code implements gRPC calls for setup</t>
+          <t>Valid Python code with functions, calls, and execution.</t>
         </is>
       </c>
       <c r="E38" t="n">
@@ -2158,7 +2158,7 @@
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>gemini-exp-1206</t>
+          <t>mistral-large-2411</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
@@ -2192,19 +2192,19 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>WiFi devices are not described in the JSON, and the python code implements wifi functions. It is UNMATCH because must not exist wifi functions</t>
+          <t>LoRa functions implemented correctly using gRPC, matching blueprint.</t>
         </is>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>gemini-exp-1206</t>
+          <t>mistral-large-2411</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
@@ -2238,19 +2238,19 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>JSON fields match with dictionary fields in the python code</t>
+          <t>WiFi configuration implemented but not using Fabric Framework.</t>
         </is>
       </c>
       <c r="E40" t="n">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>gemini-exp-1206</t>
+          <t>mistral-large-2411</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
@@ -2280,15 +2280,15 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>002-smart_agriculture</t>
+          <t>001-smart_agriculture</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>LoRa devices described in JSON and configured via gRPC</t>
+          <t>Python functions are correctly implemented.</t>
         </is>
       </c>
       <c r="E41" t="n">
@@ -2296,7 +2296,7 @@
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>gemini-exp-1206</t>
+          <t>mistral-large-2411</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
@@ -2330,11 +2330,11 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>No WiFi devices described in JSON, no WiFi setup in code</t>
+          <t>Valid Python code, functions defined, calls present, sufficient length, and execution present</t>
         </is>
       </c>
       <c r="E42" t="n">
@@ -2342,7 +2342,7 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>gemini-exp-1206</t>
+          <t>mistral-large-2411</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
@@ -2376,11 +2376,11 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>JSON fields match with the dictionary fields in Python code</t>
+          <t>Valid Python, LoRa functions implemented as required by JSON, setup via gRPC</t>
         </is>
       </c>
       <c r="E43" t="n">
@@ -2388,7 +2388,7 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>gemini-exp-1206</t>
+          <t>mistral-large-2411</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
@@ -2418,15 +2418,15 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>003-smart_agriculture</t>
+          <t>002-smart_agriculture</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>LoRa devices are described in JSON and LoRa setup is implemented using gRPC calls</t>
+          <t>Valid Python code, wifi functions implemented as required by JSON, setup via Fabric Framework</t>
         </is>
       </c>
       <c r="E44" t="n">
@@ -2434,7 +2434,7 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>gemini-exp-1206</t>
+          <t>mistral-large-2411</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
@@ -2464,15 +2464,15 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>003-smart_agriculture</t>
+          <t>002-smart_agriculture</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>WiFi devices are not described in the JSON and no WiFi setup is implemented</t>
+          <t>Valid Python code and functions present</t>
         </is>
       </c>
       <c r="E45" t="n">
@@ -2480,7 +2480,7 @@
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>gemini-exp-1206</t>
+          <t>mistral-large-2411</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
@@ -2514,11 +2514,11 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>JSON fields match with the dictionary fields in the Python code</t>
+          <t>The PYTHON SOURCE-CODE has no syntax errors and defines functions, function calls, variable declarations, and contains function and instruction execution.</t>
         </is>
       </c>
       <c r="E46" t="n">
@@ -2526,7 +2526,7 @@
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>gemini-exp-1206</t>
+          <t>mistral-large-2411</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
@@ -2556,7 +2556,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>001-smart_agriculture</t>
+          <t>003-smart_agriculture</t>
         </is>
       </c>
       <c r="C47" t="n">
@@ -2564,7 +2564,7 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>LoRa devices are described in JSON and Python code implements LoRa setup using gRPC</t>
+          <t>The PYTHON SOURCE-CODE implements LoRa functions, as the JSON BLUEPRINT requires LoRa devices, gRPC function calls and do not use WiFi parameters wrongly</t>
         </is>
       </c>
       <c r="E47" t="n">
@@ -2572,7 +2572,7 @@
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>gemini-2.0-flash-exp</t>
+          <t>mistral-large-2411</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
@@ -2602,7 +2602,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>001-smart_agriculture</t>
+          <t>003-smart_agriculture</t>
         </is>
       </c>
       <c r="C48" t="n">
@@ -2610,7 +2610,7 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>WiFi devices are not described in JSON, but python code tries to configure a WiFi AP. UNMATCH</t>
+          <t>The PYTHON SOURCE-CODE does not implement WiFi functions, as the JSON BLUEPRINT does not require WiFi devices.</t>
         </is>
       </c>
       <c r="E48" t="n">
@@ -2618,7 +2618,7 @@
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>gemini-2.0-flash-exp</t>
+          <t>mistral-large-2411</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
@@ -2648,7 +2648,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>001-smart_agriculture</t>
+          <t>003-smart_agriculture</t>
         </is>
       </c>
       <c r="C49" t="n">
@@ -2656,15 +2656,15 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>JSON fields mostly match dictionary fields in Python code, some minor mismatches in the way parameters are structured for WiFi</t>
+          <t>The PYTHON SOURCE-CODE provides correct Python functions and commands.</t>
         </is>
       </c>
       <c r="E49" t="n">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>gemini-2.0-flash-exp</t>
+          <t>mistral-large-2411</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
@@ -2694,15 +2694,15 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>002-smart_agriculture</t>
+          <t>001-smart_agriculture</t>
         </is>
       </c>
       <c r="C50" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>LoRa setup is present and correctly uses gRPC</t>
+          <t>Valid Python code, functions, calls, variable declarations, and instruction execution are present.</t>
         </is>
       </c>
       <c r="E50" t="n">
@@ -2710,7 +2710,7 @@
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>gemini-2.0-flash-exp</t>
+          <t>gemini-exp-1206</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
@@ -2740,15 +2740,15 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>002-smart_agriculture</t>
+          <t>001-smart_agriculture</t>
         </is>
       </c>
       <c r="C51" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>WiFi setup is present and correctly uses Fabric</t>
+          <t>LoRa setup using gRPC functions is implemented according to the JSON blueprint.</t>
         </is>
       </c>
       <c r="E51" t="n">
@@ -2756,7 +2756,7 @@
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>gemini-2.0-flash-exp</t>
+          <t>gemini-exp-1206</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
@@ -2786,15 +2786,15 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>002-smart_agriculture</t>
+          <t>001-smart_agriculture</t>
         </is>
       </c>
       <c r="C52" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>JSON fields correctly match with dictionary keys in the code</t>
+          <t>WiFi configuration implemented using Fabric as requested.</t>
         </is>
       </c>
       <c r="E52" t="n">
@@ -2802,7 +2802,7 @@
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>gemini-2.0-flash-exp</t>
+          <t>gemini-exp-1206</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
@@ -2832,15 +2832,15 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>003-smart_agriculture</t>
+          <t>001-smart_agriculture</t>
         </is>
       </c>
       <c r="C53" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>LoRa setup is present and correctly implemented using gRPC calls, with correct parameters</t>
+          <t>Valid Python code and functions are provided.</t>
         </is>
       </c>
       <c r="E53" t="n">
@@ -2848,7 +2848,7 @@
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>gemini-2.0-flash-exp</t>
+          <t>gemini-exp-1206</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
@@ -2878,23 +2878,23 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>003-smart_agriculture</t>
+          <t>002-smart_agriculture</t>
         </is>
       </c>
       <c r="C54" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>WiFi setup is present using fabric framework, but configuration parameters are hardcoded inside the python code and not related to "JSON BLUEPRINT", but this does not invalidate the feature check (see feature n.3)</t>
+          <t>Valid Python code, functions defined, function calls present, sufficient code length, and instruction execution</t>
         </is>
       </c>
       <c r="E54" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>gemini-2.0-flash-exp</t>
+          <t>gemini-exp-1206</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
@@ -2924,23 +2924,23 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>003-smart_agriculture</t>
+          <t>002-smart_agriculture</t>
         </is>
       </c>
       <c r="C55" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>The fields of JSON blueprint are used as parameters of functions, but there are some missing fields (geo_latitude,geo_longitude, and other)</t>
+          <t>Valid Python code and the JSON Blueprint includes a description of LoRa devices, then the PYTHON SOURCE-CODE MUST implement functions to set up LoRa using gRPC calls.</t>
         </is>
       </c>
       <c r="E55" t="n">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>gemini-2.0-flash-exp</t>
+          <t>gemini-exp-1206</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
@@ -2970,23 +2970,23 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>001-smart_city</t>
+          <t>002-smart_agriculture</t>
         </is>
       </c>
       <c r="C56" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>LoRa setup implemented using gRPC as requested, including gateway and device creation.</t>
+          <t>Valid Python code, the JSON Blueprint doest not require WiFi devices, then the PYTHON SOURCE-CODE MUST NOT implement WiFi functions. (Score = 0 if WiFi related functions are implemented).</t>
         </is>
       </c>
       <c r="E56" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>codestral-2501</t>
+          <t>gemini-exp-1206</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
@@ -3016,23 +3016,23 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>001-smart_city</t>
+          <t>002-smart_agriculture</t>
         </is>
       </c>
       <c r="C57" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>WiFi setup is implemented using file writing instead of Fabric, and WiFi functions are present despite the instruction</t>
+          <t>Valid Python code with LoRa gRPC calls and WiFi fabric framwork missing.</t>
         </is>
       </c>
       <c r="E57" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>codestral-2501</t>
+          <t>gemini-exp-1206</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
@@ -3062,15 +3062,15 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>001-smart_city</t>
+          <t>003-smart_agriculture</t>
         </is>
       </c>
       <c r="C58" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t xml:space="preserve">All JSON fields (LoRa and WiFi) are used inside the python code. </t>
+          <t>Basic code structure validation</t>
         </is>
       </c>
       <c r="E58" t="n">
@@ -3078,7 +3078,7 @@
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>codestral-2501</t>
+          <t>gemini-exp-1206</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
@@ -3108,7 +3108,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>002-smart_city</t>
+          <t>003-smart_agriculture</t>
         </is>
       </c>
       <c r="C59" t="n">
@@ -3116,7 +3116,7 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>LoRa devices are described in JSON and correctly implemented via gRPC calls in python</t>
+          <t>LoRa configuration and setup</t>
         </is>
       </c>
       <c r="E59" t="n">
@@ -3124,7 +3124,7 @@
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>codestral-2501</t>
+          <t>gemini-exp-1206</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
@@ -3154,7 +3154,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>002-smart_city</t>
+          <t>003-smart_agriculture</t>
         </is>
       </c>
       <c r="C60" t="n">
@@ -3162,7 +3162,7 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>WiFi devices are described in JSON and implemented via file writing, instead of Fabric Framework, and also code has direct WiFi configuration functions</t>
+          <t>WiFi configuration and usage</t>
         </is>
       </c>
       <c r="E60" t="n">
@@ -3170,7 +3170,7 @@
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>codestral-2501</t>
+          <t>gemini-exp-1206</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
@@ -3200,7 +3200,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>002-smart_city</t>
+          <t>003-smart_agriculture</t>
         </is>
       </c>
       <c r="C61" t="n">
@@ -3208,7 +3208,7 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>All JSON fields are correctly mapped into python dictionaries in the source code.</t>
+          <t>General Python code validity</t>
         </is>
       </c>
       <c r="E61" t="n">
@@ -3216,7 +3216,7 @@
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>codestral-2501</t>
+          <t>gemini-exp-1206</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
@@ -3246,23 +3246,23 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>003-smart_city</t>
+          <t>001-smart_agriculture</t>
         </is>
       </c>
       <c r="C62" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>LoRa devices are present in JSON and configured via gRPC</t>
+          <t>Basic code structure and syntax check</t>
         </is>
       </c>
       <c r="E62" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>codestral-2501</t>
+          <t>gemini-2.0-flash-exp</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
@@ -3292,23 +3292,23 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>003-smart_city</t>
+          <t>001-smart_agriculture</t>
         </is>
       </c>
       <c r="C63" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>WiFi devices are present and configured using Fabric but with file writing</t>
+          <t>LoRa functionality verification</t>
         </is>
       </c>
       <c r="E63" t="n">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>codestral-2501</t>
+          <t>gemini-2.0-flash-exp</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
@@ -3338,23 +3338,23 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>003-smart_city</t>
+          <t>001-smart_agriculture</t>
         </is>
       </c>
       <c r="C64" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>JSON fields match with dictionary keys in Python code</t>
+          <t>WiFi functionality verification</t>
         </is>
       </c>
       <c r="E64" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>codestral-2501</t>
+          <t>gemini-2.0-flash-exp</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
@@ -3384,28 +3384,28 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>001-smart_city</t>
+          <t>001-smart_agriculture</t>
         </is>
       </c>
       <c r="C65" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>LoRa devices are described in the JSON but there are no gRPC calls</t>
+          <t>Generic code correctness check</t>
         </is>
       </c>
       <c r="E65" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>google/codegemma-7b-it</t>
+          <t>gemini-2.0-flash-exp</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>small</t>
+          <t>large</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
@@ -3430,28 +3430,28 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>001-smart_city</t>
+          <t>002-smart_agriculture</t>
         </is>
       </c>
       <c r="C66" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>WiFi devices are described in the JSON, but no related setup functions are present in the Python code</t>
+          <t>Basic code structure and function definition</t>
         </is>
       </c>
       <c r="E66" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>google/codegemma-7b-it</t>
+          <t>gemini-2.0-flash-exp</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>small</t>
+          <t>large</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
@@ -3476,28 +3476,28 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>001-smart_city</t>
+          <t>002-smart_agriculture</t>
         </is>
       </c>
       <c r="C67" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>The Python code defines a dictionary with id,gateway_id,name,description,tenant_id,stats_interval,dev_eui,application_id,device_profile_id,application_key,skip_fcnt_check,is_disabled, not matching any element in the JSON</t>
+          <t>LoRa setup via gRPC and configuration functions</t>
         </is>
       </c>
       <c r="E67" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>google/codegemma-7b-it</t>
+          <t>gemini-2.0-flash-exp</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>small</t>
+          <t>large</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
@@ -3522,28 +3522,28 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>002-smart_city</t>
+          <t>002-smart_agriculture</t>
         </is>
       </c>
       <c r="C68" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>LoRa setup is not implemented</t>
+          <t>WiFi setup via Fabric Framework</t>
         </is>
       </c>
       <c r="E68" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>google/codegemma-7b-it</t>
+          <t>gemini-2.0-flash-exp</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>small</t>
+          <t>large</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
@@ -3568,28 +3568,28 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>002-smart_city</t>
+          <t>002-smart_agriculture</t>
         </is>
       </c>
       <c r="C69" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>WiFi setup is not implemented</t>
+          <t>General code validity and function calls</t>
         </is>
       </c>
       <c r="E69" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>google/codegemma-7b-it</t>
+          <t>gemini-2.0-flash-exp</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>small</t>
+          <t>large</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
@@ -3614,28 +3614,28 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>002-smart_city</t>
+          <t>003-smart_agriculture</t>
         </is>
       </c>
       <c r="C70" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>The code does not interact with the JSON</t>
+          <t>Valid Python, functions, calls, variables, and instruction execution are present</t>
         </is>
       </c>
       <c r="E70" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>google/codegemma-7b-it</t>
+          <t>gemini-2.0-flash-exp</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>small</t>
+          <t>large</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
@@ -3660,7 +3660,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>003-smart_city</t>
+          <t>003-smart_agriculture</t>
         </is>
       </c>
       <c r="C71" t="n">
@@ -3668,20 +3668,20 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>LoRa devices described in JSON, no gRPC calls in PYTHON</t>
+          <t>LoRa setup with gRPC matches blueprint requirements</t>
         </is>
       </c>
       <c r="E71" t="n">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>google/codegemma-7b-it</t>
+          <t>gemini-2.0-flash-exp</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>small</t>
+          <t>large</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
@@ -3706,7 +3706,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>003-smart_city</t>
+          <t>003-smart_agriculture</t>
         </is>
       </c>
       <c r="C72" t="n">
@@ -3714,20 +3714,20 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>WiFi devices described in JSON, no Fabric Framework in PYTHON</t>
+          <t>WiFi setup with Fabric matches blueprint requirements</t>
         </is>
       </c>
       <c r="E72" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>google/codegemma-7b-it</t>
+          <t>gemini-2.0-flash-exp</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>small</t>
+          <t>large</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
@@ -3752,7 +3752,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>003-smart_city</t>
+          <t>003-smart_agriculture</t>
         </is>
       </c>
       <c r="C73" t="n">
@@ -3760,20 +3760,20 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>JSON fields partially match with PYTHON</t>
+          <t>Valid Python functions are present</t>
         </is>
       </c>
       <c r="E73" t="n">
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>google/codegemma-7b-it</t>
+          <t>gemini-2.0-flash-exp</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>small</t>
+          <t>large</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
@@ -3802,24 +3802,24 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>LoRa setup using gRPC is not implemented. No python functions related to LoRa configuration are present.</t>
+          <t>Valid Python code, function/instruction execution, defines functions and variable declarations</t>
         </is>
       </c>
       <c r="E74" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>codellama/CodeLlama-7b-Instruct-hf</t>
+          <t>codestral-2501</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>small</t>
+          <t>large</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
@@ -3848,24 +3848,24 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>WiFi setup is not implemented and no python functions for WiFi configuration are present.</t>
+          <t>Implements LoRa setup via gRPC as required, no WiFi parameters misuse</t>
         </is>
       </c>
       <c r="E75" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>codellama/CodeLlama-7b-Instruct-hf</t>
+          <t>codestral-2501</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>small</t>
+          <t>large</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
@@ -3894,24 +3894,24 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>The provided python code does not generate any dictionaries based on the blueprint fields.</t>
+          <t>Implements WiFi setup using Fabric, configures hostapd and dnsmasq</t>
         </is>
       </c>
       <c r="E76" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>codellama/CodeLlama-7b-Instruct-hf</t>
+          <t>codestral-2501</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>small</t>
+          <t>large</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
@@ -3936,28 +3936,28 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>002-smart_city</t>
+          <t>001-smart_city</t>
         </is>
       </c>
       <c r="C77" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>LoRa setup is not present in the Python code, even if described in JSON</t>
+          <t>Valid Python code, provides correct Python functions and commands</t>
         </is>
       </c>
       <c r="E77" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>codellama/CodeLlama-7b-Instruct-hf</t>
+          <t>codestral-2501</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>small</t>
+          <t>large</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
@@ -3986,24 +3986,24 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>WiFi setup is not present in the Python code, even if described in JSON</t>
+          <t>Valid Python, defines/calls functions, and has sufficient code</t>
         </is>
       </c>
       <c r="E78" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>codellama/CodeLlama-7b-Instruct-hf</t>
+          <t>codestral-2501</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>small</t>
+          <t>large</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
@@ -4032,24 +4032,24 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>No dictionary usage in Python code</t>
+          <t>Implements LoRa setup using gRPC as required by the blueprint</t>
         </is>
       </c>
       <c r="E79" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>codellama/CodeLlama-7b-Instruct-hf</t>
+          <t>codestral-2501</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>small</t>
+          <t>large</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
@@ -4074,28 +4074,28 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>003-smart_city</t>
+          <t>002-smart_city</t>
         </is>
       </c>
       <c r="C80" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>LoRa setup not implemented using gRPC</t>
+          <t>Implements WiFi setup, but not using Fabric as required</t>
         </is>
       </c>
       <c r="E80" t="n">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>codellama/CodeLlama-7b-Instruct-hf</t>
+          <t>codestral-2501</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>small</t>
+          <t>large</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
@@ -4120,28 +4120,28 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>003-smart_city</t>
+          <t>002-smart_city</t>
         </is>
       </c>
       <c r="C81" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>WiFi setup is not implemented using Fabric</t>
+          <t>Valid Python code, provides correct Python functions and commands</t>
         </is>
       </c>
       <c r="E81" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>codellama/CodeLlama-7b-Instruct-hf</t>
+          <t>codestral-2501</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>small</t>
+          <t>large</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
@@ -4170,24 +4170,24 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>Fields in JSON do not match with python dictionary fields</t>
+          <t>Valid Python code, functions, and basic execution present</t>
         </is>
       </c>
       <c r="E82" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>codellama/CodeLlama-7b-Instruct-hf</t>
+          <t>codestral-2501</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>small</t>
+          <t>large</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
@@ -4212,7 +4212,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>001-smart_city</t>
+          <t>003-smart_city</t>
         </is>
       </c>
       <c r="C83" t="n">
@@ -4220,7 +4220,7 @@
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>LoRa devices are described in JSON, and LoRa setup is correctly implemented with gRPC calls.</t>
+          <t>LoRa setup implemented via gRPC as described in JSON</t>
         </is>
       </c>
       <c r="E83" t="n">
@@ -4228,7 +4228,7 @@
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>mistral-large-2411</t>
+          <t>codestral-2501</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
@@ -4258,7 +4258,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>001-smart_city</t>
+          <t>003-smart_city</t>
         </is>
       </c>
       <c r="C84" t="n">
@@ -4266,15 +4266,15 @@
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>WiFi devices are described in JSON, but WiFi setup is NOT implemented using Fabric Framework. Instead, file writing is performed, that is UNMATCH</t>
+          <t>WiFi setup implemented correctly through Fabric Framework</t>
         </is>
       </c>
       <c r="E84" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>mistral-large-2411</t>
+          <t>codestral-2501</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
@@ -4304,7 +4304,7 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>001-smart_city</t>
+          <t>003-smart_city</t>
         </is>
       </c>
       <c r="C85" t="n">
@@ -4312,7 +4312,7 @@
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>JSON blueprint fields match with dictionary fields in the python code</t>
+          <t>Valid Python functions and commands used</t>
         </is>
       </c>
       <c r="E85" t="n">
@@ -4320,7 +4320,7 @@
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>mistral-large-2411</t>
+          <t>codestral-2501</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
@@ -4350,28 +4350,28 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>002-smart_city</t>
+          <t>001-smart_city</t>
         </is>
       </c>
       <c r="C86" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>LoRa setup using gRPC is fully implemented</t>
+          <t>No Python source code provided</t>
         </is>
       </c>
       <c r="E86" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>mistral-large-2411</t>
+          <t>google/codegemma-7b-it</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>large</t>
+          <t>small</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
@@ -4396,15 +4396,15 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>002-smart_city</t>
+          <t>001-smart_city</t>
         </is>
       </c>
       <c r="C87" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t xml:space="preserve">WiFi setup using file writing and not Fabric, also WiFi functions are called even if Blueprint contains WiFi devices,  </t>
+          <t>No Python source code provided</t>
         </is>
       </c>
       <c r="E87" t="n">
@@ -4412,12 +4412,12 @@
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>mistral-large-2411</t>
+          <t>google/codegemma-7b-it</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>large</t>
+          <t>small</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
@@ -4442,28 +4442,28 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>002-smart_city</t>
+          <t>001-smart_city</t>
         </is>
       </c>
       <c r="C88" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>JSON fields match with dictionary fields in Python code</t>
+          <t>No Python source code provided</t>
         </is>
       </c>
       <c r="E88" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>mistral-large-2411</t>
+          <t>google/codegemma-7b-it</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>large</t>
+          <t>small</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
@@ -4488,28 +4488,28 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>003-smart_city</t>
+          <t>001-smart_city</t>
         </is>
       </c>
       <c r="C89" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>LoRa devices are present in the JSON and the PYTHON code implements LoRa setup using gRPC</t>
+          <t>No Python source code provided</t>
         </is>
       </c>
       <c r="E89" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>mistral-large-2411</t>
+          <t>google/codegemma-7b-it</t>
         </is>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>large</t>
+          <t>small</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
@@ -4534,28 +4534,28 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>003-smart_city</t>
+          <t>002-smart_city</t>
         </is>
       </c>
       <c r="C90" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>WiFi devices are present in the JSON and the PYTHON code implements WiFi setup by generating config files</t>
+          <t>Basic structure and syntax check</t>
         </is>
       </c>
       <c r="E90" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>mistral-large-2411</t>
+          <t>google/codegemma-7b-it</t>
         </is>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>large</t>
+          <t>small</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
@@ -4580,15 +4580,15 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>003-smart_city</t>
+          <t>002-smart_city</t>
         </is>
       </c>
       <c r="C91" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>JSON fields match with the python dictionary fields in the LoRa configuration part</t>
+          <t>LoRa configuration is required and present in the blueprint</t>
         </is>
       </c>
       <c r="E91" t="n">
@@ -4596,12 +4596,12 @@
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>mistral-large-2411</t>
+          <t>google/codegemma-7b-it</t>
         </is>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>large</t>
+          <t>small</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
@@ -4626,28 +4626,28 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>001-smart_city</t>
+          <t>002-smart_city</t>
         </is>
       </c>
       <c r="C92" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>LoRa devices are described in JSON and code implement grpc calls to set up LoRa devices</t>
+          <t>WiFi configuration required, but no Fabric implementation detected</t>
         </is>
       </c>
       <c r="E92" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>gemini-exp-1206</t>
+          <t>google/codegemma-7b-it</t>
         </is>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>large</t>
+          <t>small</t>
         </is>
       </c>
       <c r="H92" t="inlineStr">
@@ -4672,15 +4672,15 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>001-smart_city</t>
+          <t>002-smart_city</t>
         </is>
       </c>
       <c r="C93" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>WiFi devices are described in JSON and code implement fabric framework to set up WiFi</t>
+          <t>General Python code presence</t>
         </is>
       </c>
       <c r="E93" t="n">
@@ -4688,12 +4688,12 @@
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>gemini-exp-1206</t>
+          <t>google/codegemma-7b-it</t>
         </is>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>large</t>
+          <t>small</t>
         </is>
       </c>
       <c r="H93" t="inlineStr">
@@ -4718,28 +4718,28 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>001-smart_city</t>
+          <t>003-smart_city</t>
         </is>
       </c>
       <c r="C94" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>JSON fields match with dictionary fields in python code</t>
+          <t>basic code structure missing</t>
         </is>
       </c>
       <c r="E94" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>gemini-exp-1206</t>
+          <t>google/codegemma-7b-it</t>
         </is>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>large</t>
+          <t>small</t>
         </is>
       </c>
       <c r="H94" t="inlineStr">
@@ -4764,7 +4764,7 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>002-smart_city</t>
+          <t>003-smart_city</t>
         </is>
       </c>
       <c r="C95" t="n">
@@ -4772,20 +4772,20 @@
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>LoRa devices are described in JSON, and python code uses gRPC to configure LoRa devices</t>
+          <t>lora functions missing</t>
         </is>
       </c>
       <c r="E95" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>gemini-exp-1206</t>
+          <t>google/codegemma-7b-it</t>
         </is>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>large</t>
+          <t>small</t>
         </is>
       </c>
       <c r="H95" t="inlineStr">
@@ -4810,7 +4810,7 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>002-smart_city</t>
+          <t>003-smart_city</t>
         </is>
       </c>
       <c r="C96" t="n">
@@ -4818,20 +4818,20 @@
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>WiFi devices are described in JSON, and python code uses Fabric Framework to configure WiFi devices</t>
+          <t>wifi functions missing</t>
         </is>
       </c>
       <c r="E96" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>gemini-exp-1206</t>
+          <t>google/codegemma-7b-it</t>
         </is>
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>large</t>
+          <t>small</t>
         </is>
       </c>
       <c r="H96" t="inlineStr">
@@ -4856,7 +4856,7 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>002-smart_city</t>
+          <t>003-smart_city</t>
         </is>
       </c>
       <c r="C97" t="n">
@@ -4864,20 +4864,20 @@
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>JSON fields match with dictionary fields in Python code</t>
+          <t>basic code commands missing</t>
         </is>
       </c>
       <c r="E97" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>gemini-exp-1206</t>
+          <t>google/codegemma-7b-it</t>
         </is>
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>large</t>
+          <t>small</t>
         </is>
       </c>
       <c r="H97" t="inlineStr">
@@ -4902,15 +4902,15 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>003-smart_city</t>
+          <t>001-smart_city</t>
         </is>
       </c>
       <c r="C98" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>LoRa setup using gRPC is correctly implemented and used</t>
+          <t>Basic code structure and syntax check</t>
         </is>
       </c>
       <c r="E98" t="n">
@@ -4918,12 +4918,12 @@
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>gemini-exp-1206</t>
+          <t>codellama/CodeLlama-7b-Instruct-hf</t>
         </is>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>large</t>
+          <t>small</t>
         </is>
       </c>
       <c r="H98" t="inlineStr">
@@ -4948,28 +4948,28 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>003-smart_city</t>
+          <t>001-smart_city</t>
         </is>
       </c>
       <c r="C99" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>WiFi setup is implemented using Fabric but configuration files are written directly and not via CLI</t>
+          <t>LoRa setup and configuration functions check</t>
         </is>
       </c>
       <c r="E99" t="n">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>gemini-exp-1206</t>
+          <t>codellama/CodeLlama-7b-Instruct-hf</t>
         </is>
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>large</t>
+          <t>small</t>
         </is>
       </c>
       <c r="H99" t="inlineStr">
@@ -4994,15 +4994,15 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>003-smart_city</t>
+          <t>001-smart_city</t>
         </is>
       </c>
       <c r="C100" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>All the required JSON fields are used in the Python code and correctly mapped in a dictionary</t>
+          <t>WiFi setup and configuration functions check</t>
         </is>
       </c>
       <c r="E100" t="n">
@@ -5010,12 +5010,12 @@
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>gemini-exp-1206</t>
+          <t>codellama/CodeLlama-7b-Instruct-hf</t>
         </is>
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>large</t>
+          <t>small</t>
         </is>
       </c>
       <c r="H100" t="inlineStr">
@@ -5044,11 +5044,11 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>LoRa setup is correctly implemented using gRPC calls, as required</t>
+          <t>Correct Python functions and commands check</t>
         </is>
       </c>
       <c r="E101" t="n">
@@ -5056,12 +5056,12 @@
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>gemini-2.0-flash-exp</t>
+          <t>codellama/CodeLlama-7b-Instruct-hf</t>
         </is>
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>large</t>
+          <t>small</t>
         </is>
       </c>
       <c r="H101" t="inlineStr">
@@ -5086,28 +5086,28 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>001-smart_city</t>
+          <t>002-smart_city</t>
         </is>
       </c>
       <c r="C102" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>WiFi AP setup is using Fabric as required, but the setup method for station is wrong (writing to file), it should be via fabric also</t>
+          <t>Basic code structure check failed</t>
         </is>
       </c>
       <c r="E102" t="n">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>gemini-2.0-flash-exp</t>
+          <t>codellama/CodeLlama-7b-Instruct-hf</t>
         </is>
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>large</t>
+          <t>small</t>
         </is>
       </c>
       <c r="H102" t="inlineStr">
@@ -5132,28 +5132,28 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>001-smart_city</t>
+          <t>002-smart_city</t>
         </is>
       </c>
       <c r="C103" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>All JSON blueprint fields are correctly mapped to python dictionaries</t>
+          <t>LoRa configuration implementation check</t>
         </is>
       </c>
       <c r="E103" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>gemini-2.0-flash-exp</t>
+          <t>codellama/CodeLlama-7b-Instruct-hf</t>
         </is>
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>large</t>
+          <t>small</t>
         </is>
       </c>
       <c r="H103" t="inlineStr">
@@ -5182,24 +5182,24 @@
         </is>
       </c>
       <c r="C104" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>LoRa devices are described in the JSON and the Python code implements the setup through gRPC calls, with correct parameters usage.</t>
+          <t>WiFi framework setup and function call</t>
         </is>
       </c>
       <c r="E104" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>gemini-2.0-flash-exp</t>
+          <t>codellama/CodeLlama-7b-Instruct-hf</t>
         </is>
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>large</t>
+          <t>small</t>
         </is>
       </c>
       <c r="H104" t="inlineStr">
@@ -5228,24 +5228,24 @@
         </is>
       </c>
       <c r="C105" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t xml:space="preserve">WiFi devices are described in the JSON and the Python code implements the setup using Fabric Framework, not via direct file writing. </t>
+          <t>Basic python command implementation check</t>
         </is>
       </c>
       <c r="E105" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>gemini-2.0-flash-exp</t>
+          <t>codellama/CodeLlama-7b-Instruct-hf</t>
         </is>
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>large</t>
+          <t>small</t>
         </is>
       </c>
       <c r="H105" t="inlineStr">
@@ -5270,28 +5270,28 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>002-smart_city</t>
+          <t>003-smart_city</t>
         </is>
       </c>
       <c r="C106" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>All fields in the JSON blueprint match correctly with the dictionary field in the python code.</t>
+          <t>No Python Code</t>
         </is>
       </c>
       <c r="E106" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>gemini-2.0-flash-exp</t>
+          <t>codellama/CodeLlama-7b-Instruct-hf</t>
         </is>
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>large</t>
+          <t>small</t>
         </is>
       </c>
       <c r="H106" t="inlineStr">
@@ -5324,20 +5324,20 @@
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>LoRa setup is present and uses gRPC calls, as expected</t>
+          <t>No Python Code</t>
         </is>
       </c>
       <c r="E107" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>gemini-2.0-flash-exp</t>
+          <t>codellama/CodeLlama-7b-Instruct-hf</t>
         </is>
       </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t>large</t>
+          <t>small</t>
         </is>
       </c>
       <c r="H107" t="inlineStr">
@@ -5370,7 +5370,7 @@
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>WiFi setup uses subprocess calls and file writing instead of Fabric</t>
+          <t>No Python Code</t>
         </is>
       </c>
       <c r="E108" t="n">
@@ -5378,12 +5378,12 @@
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>gemini-2.0-flash-exp</t>
+          <t>codellama/CodeLlama-7b-Instruct-hf</t>
         </is>
       </c>
       <c r="G108" t="inlineStr">
         <is>
-          <t>large</t>
+          <t>small</t>
         </is>
       </c>
       <c r="H108" t="inlineStr">
@@ -5416,20 +5416,20 @@
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>JSON blueprint fields match with python code dictionary field names.</t>
+          <t>No Python Code</t>
         </is>
       </c>
       <c r="E109" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>gemini-2.0-flash-exp</t>
+          <t>codellama/CodeLlama-7b-Instruct-hf</t>
         </is>
       </c>
       <c r="G109" t="inlineStr">
         <is>
-          <t>large</t>
+          <t>small</t>
         </is>
       </c>
       <c r="H109" t="inlineStr">
@@ -5454,15 +5454,15 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>001-smart_home</t>
+          <t>001-smart_city</t>
         </is>
       </c>
       <c r="C110" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>LoRa devices described in blueprint, LoRa setup provided via gRPC calls</t>
+          <t>Valid Python code with function definitions, calls, and execution.</t>
         </is>
       </c>
       <c r="E110" t="n">
@@ -5470,7 +5470,7 @@
       </c>
       <c r="F110" t="inlineStr">
         <is>
-          <t>codestral-2501</t>
+          <t>mistral-large-2411</t>
         </is>
       </c>
       <c r="G110" t="inlineStr">
@@ -5500,23 +5500,23 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>001-smart_home</t>
+          <t>001-smart_city</t>
         </is>
       </c>
       <c r="C111" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>WiFi devices described in blueprint, WiFi setup provided by file writing</t>
+          <t>Implements LoRa functions as required by the blueprint using gRPC calls.</t>
         </is>
       </c>
       <c r="E111" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F111" t="inlineStr">
         <is>
-          <t>codestral-2501</t>
+          <t>mistral-large-2411</t>
         </is>
       </c>
       <c r="G111" t="inlineStr">
@@ -5546,23 +5546,23 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>001-smart_home</t>
+          <t>001-smart_city</t>
         </is>
       </c>
       <c r="C112" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>JSON blueprint fields match with dictionary fields in python code</t>
+          <t>Implements WiFi configuration as required by the blueprint, setting up AP and stations</t>
         </is>
       </c>
       <c r="E112" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="F112" t="inlineStr">
         <is>
-          <t>codestral-2501</t>
+          <t>mistral-large-2411</t>
         </is>
       </c>
       <c r="G112" t="inlineStr">
@@ -5592,23 +5592,23 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>002-smart_home</t>
+          <t>001-smart_city</t>
         </is>
       </c>
       <c r="C113" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>LoRa devices are not described in the JSON BLUEPRINT, and no LoRa functions are present in the PYTHON SOURCE-CODE</t>
+          <t>Valid Python code with functions and commands.</t>
         </is>
       </c>
       <c r="E113" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F113" t="inlineStr">
         <is>
-          <t>codestral-2501</t>
+          <t>mistral-large-2411</t>
         </is>
       </c>
       <c r="G113" t="inlineStr">
@@ -5638,23 +5638,23 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>002-smart_home</t>
+          <t>002-smart_city</t>
         </is>
       </c>
       <c r="C114" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>WiFi devices are described in the JSON BLUEPRINT, the PYTHON SOURCE-CODE implement correct functions to set up WiFi using Fabric but perform also file writing, this is UNMATCHED</t>
+          <t>Valid Python, defines functions, calls, and has enough code. However, some executions could be better managed in try-except blocks for robustness</t>
         </is>
       </c>
       <c r="E114" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="F114" t="inlineStr">
         <is>
-          <t>codestral-2501</t>
+          <t>mistral-large-2411</t>
         </is>
       </c>
       <c r="G114" t="inlineStr">
@@ -5684,23 +5684,23 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>002-smart_home</t>
+          <t>002-smart_city</t>
         </is>
       </c>
       <c r="C115" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>The JSON BLUEPRINT fields match dictionary fields in PYTHON SOURCE-CODE</t>
+          <t>LoRa setup implemented using gRPC, functions correctly configured, but some blueprint parameters are not implemented</t>
         </is>
       </c>
       <c r="E115" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="F115" t="inlineStr">
         <is>
-          <t>codestral-2501</t>
+          <t>mistral-large-2411</t>
         </is>
       </c>
       <c r="G115" t="inlineStr">
@@ -5730,23 +5730,23 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>003-smart_home</t>
+          <t>002-smart_city</t>
         </is>
       </c>
       <c r="C116" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>No LoRa devices are described in the JSON blueprint</t>
+          <t>WiFi setup implemented, but file writing may not be the correct way to configure WiFi</t>
         </is>
       </c>
       <c r="E116" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="F116" t="inlineStr">
         <is>
-          <t>codestral-2501</t>
+          <t>mistral-large-2411</t>
         </is>
       </c>
       <c r="G116" t="inlineStr">
@@ -5776,23 +5776,23 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>003-smart_home</t>
+          <t>002-smart_city</t>
         </is>
       </c>
       <c r="C117" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>WiFi setup is implemented using file writing and not Fabric and the code provides WiFi functions</t>
+          <t>Code is valid, but some implementations should be improved</t>
         </is>
       </c>
       <c r="E117" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="F117" t="inlineStr">
         <is>
-          <t>codestral-2501</t>
+          <t>mistral-large-2411</t>
         </is>
       </c>
       <c r="G117" t="inlineStr">
@@ -5822,15 +5822,15 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>003-smart_home</t>
+          <t>003-smart_city</t>
         </is>
       </c>
       <c r="C118" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>JSON blueprint fields match with dictionary fields in the Python code</t>
+          <t>Valid Python code, functions, calls, variables, and execution present</t>
         </is>
       </c>
       <c r="E118" t="n">
@@ -5838,7 +5838,7 @@
       </c>
       <c r="F118" t="inlineStr">
         <is>
-          <t>codestral-2501</t>
+          <t>mistral-large-2411</t>
         </is>
       </c>
       <c r="G118" t="inlineStr">
@@ -5868,7 +5868,7 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>001-smart_home</t>
+          <t>003-smart_city</t>
         </is>
       </c>
       <c r="C119" t="n">
@@ -5876,20 +5876,20 @@
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>No LoRa devices described in JSON, thus no LoRa setup required</t>
+          <t>LoRa configuration using gRPC aligns with blueprint requirements</t>
         </is>
       </c>
       <c r="E119" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F119" t="inlineStr">
         <is>
-          <t>google/codegemma-7b-it</t>
+          <t>mistral-large-2411</t>
         </is>
       </c>
       <c r="G119" t="inlineStr">
         <is>
-          <t>small</t>
+          <t>large</t>
         </is>
       </c>
       <c r="H119" t="inlineStr">
@@ -5914,7 +5914,7 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>001-smart_home</t>
+          <t>003-smart_city</t>
         </is>
       </c>
       <c r="C120" t="n">
@@ -5922,20 +5922,20 @@
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>WiFi devices described in JSON, but no Fabric Framework based setup found</t>
+          <t>WiFi configured, but Fabric Framework not used</t>
         </is>
       </c>
       <c r="E120" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="F120" t="inlineStr">
         <is>
-          <t>google/codegemma-7b-it</t>
+          <t>mistral-large-2411</t>
         </is>
       </c>
       <c r="G120" t="inlineStr">
         <is>
-          <t>small</t>
+          <t>large</t>
         </is>
       </c>
       <c r="H120" t="inlineStr">
@@ -5960,7 +5960,7 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>001-smart_home</t>
+          <t>003-smart_city</t>
         </is>
       </c>
       <c r="C121" t="n">
@@ -5968,20 +5968,20 @@
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>JSON fields not present in the code</t>
+          <t>Correct Python functions/commands are present</t>
         </is>
       </c>
       <c r="E121" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F121" t="inlineStr">
         <is>
-          <t>google/codegemma-7b-it</t>
+          <t>mistral-large-2411</t>
         </is>
       </c>
       <c r="G121" t="inlineStr">
         <is>
-          <t>small</t>
+          <t>large</t>
         </is>
       </c>
       <c r="H121" t="inlineStr">
@@ -6006,28 +6006,28 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>002-smart_home</t>
+          <t>001-smart_city</t>
         </is>
       </c>
       <c r="C122" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>LoRa devices are described in the python source code, gRPC is not used</t>
+          <t>Basic code structure and functionality</t>
         </is>
       </c>
       <c r="E122" t="n">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="F122" t="inlineStr">
         <is>
-          <t>google/codegemma-7b-it</t>
+          <t>gemini-exp-1206</t>
         </is>
       </c>
       <c r="G122" t="inlineStr">
         <is>
-          <t>small</t>
+          <t>large</t>
         </is>
       </c>
       <c r="H122" t="inlineStr">
@@ -6052,28 +6052,28 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>002-smart_home</t>
+          <t>001-smart_city</t>
         </is>
       </c>
       <c r="C123" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>WiFi devices described in the JSON, Python code does not implement function to setup WiFi</t>
+          <t>LoRa configuration and gRPC usage</t>
         </is>
       </c>
       <c r="E123" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="F123" t="inlineStr">
         <is>
-          <t>google/codegemma-7b-it</t>
+          <t>gemini-exp-1206</t>
         </is>
       </c>
       <c r="G123" t="inlineStr">
         <is>
-          <t>small</t>
+          <t>large</t>
         </is>
       </c>
       <c r="H123" t="inlineStr">
@@ -6098,28 +6098,28 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>002-smart_home</t>
+          <t>001-smart_city</t>
         </is>
       </c>
       <c r="C124" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>JSON fields match the dictionary in python source code for LoRa, but not for wifi because no function exist</t>
+          <t>WiFi configuration using Fabric framework</t>
         </is>
       </c>
       <c r="E124" t="n">
-        <v>20</v>
+        <v>80</v>
       </c>
       <c r="F124" t="inlineStr">
         <is>
-          <t>google/codegemma-7b-it</t>
+          <t>gemini-exp-1206</t>
         </is>
       </c>
       <c r="G124" t="inlineStr">
         <is>
-          <t>small</t>
+          <t>large</t>
         </is>
       </c>
       <c r="H124" t="inlineStr">
@@ -6144,28 +6144,28 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>003-smart_home</t>
+          <t>001-smart_city</t>
         </is>
       </c>
       <c r="C125" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>No LoRa devices described in the blueprint</t>
+          <t>General Python code correctness</t>
         </is>
       </c>
       <c r="E125" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F125" t="inlineStr">
         <is>
-          <t>google/codegemma-7b-it</t>
+          <t>gemini-exp-1206</t>
         </is>
       </c>
       <c r="G125" t="inlineStr">
         <is>
-          <t>small</t>
+          <t>large</t>
         </is>
       </c>
       <c r="H125" t="inlineStr">
@@ -6190,28 +6190,28 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>003-smart_home</t>
+          <t>002-smart_city</t>
         </is>
       </c>
       <c r="C126" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>WiFi devices described in blueprint, but Python code does not implement WiFi setup</t>
+          <t>Valid Python code, functions, calls, variable declarations, instruction execution</t>
         </is>
       </c>
       <c r="E126" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F126" t="inlineStr">
         <is>
-          <t>google/codegemma-7b-it</t>
+          <t>gemini-exp-1206</t>
         </is>
       </c>
       <c r="G126" t="inlineStr">
         <is>
-          <t>small</t>
+          <t>large</t>
         </is>
       </c>
       <c r="H126" t="inlineStr">
@@ -6236,28 +6236,28 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>003-smart_home</t>
+          <t>002-smart_city</t>
         </is>
       </c>
       <c r="C127" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>Python code dictionary fields do not match with JSON blueprint.</t>
+          <t>LoRa setup using gRPC as required</t>
         </is>
       </c>
       <c r="E127" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F127" t="inlineStr">
         <is>
-          <t>google/codegemma-7b-it</t>
+          <t>gemini-exp-1206</t>
         </is>
       </c>
       <c r="G127" t="inlineStr">
         <is>
-          <t>small</t>
+          <t>large</t>
         </is>
       </c>
       <c r="H127" t="inlineStr">
@@ -6282,28 +6282,28 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>001-smart_home</t>
+          <t>002-smart_city</t>
         </is>
       </c>
       <c r="C128" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>LoRa devices described in JSON but no LoRa setup in PYTHON code</t>
+          <t>WiFi setup using Fabric Framework, implements WiFi functions</t>
         </is>
       </c>
       <c r="E128" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F128" t="inlineStr">
         <is>
-          <t>codellama/CodeLlama-7b-Instruct-hf</t>
+          <t>gemini-exp-1206</t>
         </is>
       </c>
       <c r="G128" t="inlineStr">
         <is>
-          <t>small</t>
+          <t>large</t>
         </is>
       </c>
       <c r="H128" t="inlineStr">
@@ -6328,28 +6328,28 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>001-smart_home</t>
+          <t>002-smart_city</t>
         </is>
       </c>
       <c r="C129" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>WiFi devices described in JSON and must use Fabric for setup, but not implemented in PYTHON code</t>
+          <t>Valid Python code and functions</t>
         </is>
       </c>
       <c r="E129" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F129" t="inlineStr">
         <is>
-          <t>codellama/CodeLlama-7b-Instruct-hf</t>
+          <t>gemini-exp-1206</t>
         </is>
       </c>
       <c r="G129" t="inlineStr">
         <is>
-          <t>small</t>
+          <t>large</t>
         </is>
       </c>
       <c r="H129" t="inlineStr">
@@ -6374,28 +6374,28 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>001-smart_home</t>
+          <t>003-smart_city</t>
         </is>
       </c>
       <c r="C130" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>JSON fields do not match with dictionary fields in PYTHON code</t>
+          <t>Valid Python code with functions and instructions</t>
         </is>
       </c>
       <c r="E130" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F130" t="inlineStr">
         <is>
-          <t>codellama/CodeLlama-7b-Instruct-hf</t>
+          <t>gemini-exp-1206</t>
         </is>
       </c>
       <c r="G130" t="inlineStr">
         <is>
-          <t>small</t>
+          <t>large</t>
         </is>
       </c>
       <c r="H130" t="inlineStr">
@@ -6420,7 +6420,7 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>002-smart_home</t>
+          <t>003-smart_city</t>
         </is>
       </c>
       <c r="C131" t="n">
@@ -6428,20 +6428,20 @@
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>JSON blueprint does not describe LoRa devices</t>
+          <t>LoRa setup using gRPC as required by blueprint</t>
         </is>
       </c>
       <c r="E131" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F131" t="inlineStr">
         <is>
-          <t>codellama/CodeLlama-7b-Instruct-hf</t>
+          <t>gemini-exp-1206</t>
         </is>
       </c>
       <c r="G131" t="inlineStr">
         <is>
-          <t>small</t>
+          <t>large</t>
         </is>
       </c>
       <c r="H131" t="inlineStr">
@@ -6466,7 +6466,7 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>002-smart_home</t>
+          <t>003-smart_city</t>
         </is>
       </c>
       <c r="C132" t="n">
@@ -6474,20 +6474,20 @@
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>WiFi setup MUST be provided using Fabric Framework. Found WiFi but not Fabric</t>
+          <t>WiFi setup using Fabric Framework as required by blueprint</t>
         </is>
       </c>
       <c r="E132" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="F132" t="inlineStr">
         <is>
-          <t>codellama/CodeLlama-7b-Instruct-hf</t>
+          <t>gemini-exp-1206</t>
         </is>
       </c>
       <c r="G132" t="inlineStr">
         <is>
-          <t>small</t>
+          <t>large</t>
         </is>
       </c>
       <c r="H132" t="inlineStr">
@@ -6512,7 +6512,7 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>002-smart_home</t>
+          <t>003-smart_city</t>
         </is>
       </c>
       <c r="C133" t="n">
@@ -6520,20 +6520,20 @@
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>JSON blueprint fields do not match with dictionary field in python code</t>
+          <t>Code is valid and functional</t>
         </is>
       </c>
       <c r="E133" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F133" t="inlineStr">
         <is>
-          <t>codellama/CodeLlama-7b-Instruct-hf</t>
+          <t>gemini-exp-1206</t>
         </is>
       </c>
       <c r="G133" t="inlineStr">
         <is>
-          <t>small</t>
+          <t>large</t>
         </is>
       </c>
       <c r="H133" t="inlineStr">
@@ -6558,28 +6558,28 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>003-smart_home</t>
+          <t>001-smart_city</t>
         </is>
       </c>
       <c r="C134" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>LoRa setup is not implemented in the Python code, JSON blueprint does not include any LoRa device</t>
+          <t>Valid Python code with functions, calls, variable declarations, and significant length.</t>
         </is>
       </c>
       <c r="E134" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F134" t="inlineStr">
         <is>
-          <t>codellama/CodeLlama-7b-Instruct-hf</t>
+          <t>gemini-2.0-flash-exp</t>
         </is>
       </c>
       <c r="G134" t="inlineStr">
         <is>
-          <t>small</t>
+          <t>large</t>
         </is>
       </c>
       <c r="H134" t="inlineStr">
@@ -6604,28 +6604,28 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>003-smart_home</t>
+          <t>001-smart_city</t>
         </is>
       </c>
       <c r="C135" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>WiFi setup is not implemented using Fabric framework, no python functions are used, despite wifi devices described in JSON</t>
+          <t>Implements LoRa setup using gRPC calls as required.</t>
         </is>
       </c>
       <c r="E135" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F135" t="inlineStr">
         <is>
-          <t>codellama/CodeLlama-7b-Instruct-hf</t>
+          <t>gemini-2.0-flash-exp</t>
         </is>
       </c>
       <c r="G135" t="inlineStr">
         <is>
-          <t>small</t>
+          <t>large</t>
         </is>
       </c>
       <c r="H135" t="inlineStr">
@@ -6650,28 +6650,28 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>003-smart_home</t>
+          <t>001-smart_city</t>
         </is>
       </c>
       <c r="C136" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>JSON fields are not matching with dictionary fields in the Python code</t>
+          <t>Implements WiFi setup using Fabric as required.</t>
         </is>
       </c>
       <c r="E136" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F136" t="inlineStr">
         <is>
-          <t>codellama/CodeLlama-7b-Instruct-hf</t>
+          <t>gemini-2.0-flash-exp</t>
         </is>
       </c>
       <c r="G136" t="inlineStr">
         <is>
-          <t>small</t>
+          <t>large</t>
         </is>
       </c>
       <c r="H136" t="inlineStr">
@@ -6696,23 +6696,23 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>001-smart_home</t>
+          <t>001-smart_city</t>
         </is>
       </c>
       <c r="C137" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>LoRa devices are not present in the JSON blueprint and LoRa configuration functions is not called, so the feature is unmatch</t>
+          <t>Valid Python code with correct functions.</t>
         </is>
       </c>
       <c r="E137" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F137" t="inlineStr">
         <is>
-          <t>mistral-large-2411</t>
+          <t>gemini-2.0-flash-exp</t>
         </is>
       </c>
       <c r="G137" t="inlineStr">
@@ -6742,23 +6742,23 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>001-smart_home</t>
+          <t>002-smart_city</t>
         </is>
       </c>
       <c r="C138" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>WiFi configuration is done using file writing instead of Fabric Framework</t>
+          <t>Valid Python code with functions, calls, and sufficient lines.</t>
         </is>
       </c>
       <c r="E138" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F138" t="inlineStr">
         <is>
-          <t>mistral-large-2411</t>
+          <t>gemini-2.0-flash-exp</t>
         </is>
       </c>
       <c r="G138" t="inlineStr">
@@ -6788,23 +6788,23 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>001-smart_home</t>
+          <t>002-smart_city</t>
         </is>
       </c>
       <c r="C139" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>JSON fields match the dictionary field in python code</t>
+          <t>LoRa setup via gRPC mostly implemented, but WiFi parameters usage not checked.</t>
         </is>
       </c>
       <c r="E139" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="F139" t="inlineStr">
         <is>
-          <t>mistral-large-2411</t>
+          <t>gemini-2.0-flash-exp</t>
         </is>
       </c>
       <c r="G139" t="inlineStr">
@@ -6834,23 +6834,23 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>002-smart_home</t>
+          <t>002-smart_city</t>
         </is>
       </c>
       <c r="C140" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>LoRa devices described in JSON, gRPC functions are implemented, no WiFi parameters used for LoRa</t>
+          <t>WiFi setup implemented using Fabric, but setup not verified agains JSON info.</t>
         </is>
       </c>
       <c r="E140" t="n">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="F140" t="inlineStr">
         <is>
-          <t>mistral-large-2411</t>
+          <t>gemini-2.0-flash-exp</t>
         </is>
       </c>
       <c r="G140" t="inlineStr">
@@ -6880,23 +6880,23 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>002-smart_home</t>
+          <t>002-smart_city</t>
         </is>
       </c>
       <c r="C141" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>WiFi devices described in JSON, but setup is done via file writing, not Fabric</t>
+          <t>Correct python functions implemented.</t>
         </is>
       </c>
       <c r="E141" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="F141" t="inlineStr">
         <is>
-          <t>mistral-large-2411</t>
+          <t>gemini-2.0-flash-exp</t>
         </is>
       </c>
       <c r="G141" t="inlineStr">
@@ -6926,23 +6926,23 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>002-smart_home</t>
+          <t>003-smart_city</t>
         </is>
       </c>
       <c r="C142" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>JSON fields partially match with dictionary field in "PYTHON SOURCE-CODE", missing fields</t>
+          <t>Code has functions, calls, variable declarations and instructions</t>
         </is>
       </c>
       <c r="E142" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="F142" t="inlineStr">
         <is>
-          <t>mistral-large-2411</t>
+          <t>gemini-2.0-flash-exp</t>
         </is>
       </c>
       <c r="G142" t="inlineStr">
@@ -6972,7 +6972,7 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>003-smart_home</t>
+          <t>003-smart_city</t>
         </is>
       </c>
       <c r="C143" t="n">
@@ -6980,15 +6980,15 @@
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>LoRa devices are not described in the JSON blueprint</t>
+          <t>LoRa setup implemented using gRPC calls as required</t>
         </is>
       </c>
       <c r="E143" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F143" t="inlineStr">
         <is>
-          <t>mistral-large-2411</t>
+          <t>gemini-2.0-flash-exp</t>
         </is>
       </c>
       <c r="G143" t="inlineStr">
@@ -7018,7 +7018,7 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>003-smart_home</t>
+          <t>003-smart_city</t>
         </is>
       </c>
       <c r="C144" t="n">
@@ -7026,15 +7026,15 @@
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>WiFi setup is implemented using file writing instead of Fabric, and WiFi functions are correctly implemented</t>
+          <t>WiFi AP configuration implemented using subprocess calls, stations with dnsmasq, but not Fabric Framework</t>
         </is>
       </c>
       <c r="E144" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="F144" t="inlineStr">
         <is>
-          <t>mistral-large-2411</t>
+          <t>gemini-2.0-flash-exp</t>
         </is>
       </c>
       <c r="G144" t="inlineStr">
@@ -7064,7 +7064,7 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>003-smart_home</t>
+          <t>003-smart_city</t>
         </is>
       </c>
       <c r="C145" t="n">
@@ -7072,15 +7072,15 @@
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>The Python code correctly reads the JSON file, but the 'wlan_MAC_ADDR' field is used as LoRa Device EUI, which is incorrect, and parameters as 'password' and 'user' are not used at all</t>
+          <t>Code is valid Python and provides correct functions and commands</t>
         </is>
       </c>
       <c r="E145" t="n">
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="F145" t="inlineStr">
         <is>
-          <t>mistral-large-2411</t>
+          <t>gemini-2.0-flash-exp</t>
         </is>
       </c>
       <c r="G145" t="inlineStr">
@@ -7114,19 +7114,19 @@
         </is>
       </c>
       <c r="C146" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>The JSON blueprint does not include LoRa devices description, thus the python code MUST NOT implement lora setup functions. However, the source code implements LoRa device profiles and application creation through gRPC calls, so feature 1 is totally unmatch.</t>
+          <t>Basic structure and syntax check</t>
         </is>
       </c>
       <c r="E146" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F146" t="inlineStr">
         <is>
-          <t>gemini-exp-1206</t>
+          <t>codestral-2501</t>
         </is>
       </c>
       <c r="G146" t="inlineStr">
@@ -7160,19 +7160,19 @@
         </is>
       </c>
       <c r="C147" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>The JSON blueprint includes a description of WiFi devices (both AP and stations). The Python code correctly implements WiFi setup using Fabric framework, with no file writing in the process. So feature 2 is fully match.</t>
+          <t>LoRa configuration with gRPC, but WiFi parameters not used</t>
         </is>
       </c>
       <c r="E147" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="F147" t="inlineStr">
         <is>
-          <t>gemini-exp-1206</t>
+          <t>codestral-2501</t>
         </is>
       </c>
       <c r="G147" t="inlineStr">
@@ -7206,19 +7206,19 @@
         </is>
       </c>
       <c r="C148" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>The Python code uses the fields defined in the JSON blueprint for WiFi configuration, and to create application name. However, the python code does not use all the information for Lora devices (example: application_key). So feature 3 is partially matched.</t>
+          <t>WiFi configuration using Fabric, implements functions</t>
         </is>
       </c>
       <c r="E148" t="n">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="F148" t="inlineStr">
         <is>
-          <t>gemini-exp-1206</t>
+          <t>codestral-2501</t>
         </is>
       </c>
       <c r="G148" t="inlineStr">
@@ -7248,23 +7248,23 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>002-smart_home</t>
+          <t>001-smart_home</t>
         </is>
       </c>
       <c r="C149" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>JSON BLUEPRINT does not include LoRa devices, and no LoRa configuration is performed</t>
+          <t>Code provides Python functions and commands</t>
         </is>
       </c>
       <c r="E149" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F149" t="inlineStr">
         <is>
-          <t>gemini-exp-1206</t>
+          <t>codestral-2501</t>
         </is>
       </c>
       <c r="G149" t="inlineStr">
@@ -7298,11 +7298,11 @@
         </is>
       </c>
       <c r="C150" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>JSON BLUEPRINT includes WiFi devices, PYTHON SOURCE-CODE uses Fabric Framework and not simple file writing for WiFi configuration. All requirements are satisfied</t>
+          <t>Valid Python, functions, calls, declarations, and execution present</t>
         </is>
       </c>
       <c r="E150" t="n">
@@ -7310,7 +7310,7 @@
       </c>
       <c r="F150" t="inlineStr">
         <is>
-          <t>gemini-exp-1206</t>
+          <t>codestral-2501</t>
         </is>
       </c>
       <c r="G150" t="inlineStr">
@@ -7344,11 +7344,11 @@
         </is>
       </c>
       <c r="C151" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>All JSON fields match dictionary field in PYTHON SOURCE-CODE, all the requirements are satisfied</t>
+          <t>No LoRa required, no LoRa functions used</t>
         </is>
       </c>
       <c r="E151" t="n">
@@ -7356,7 +7356,7 @@
       </c>
       <c r="F151" t="inlineStr">
         <is>
-          <t>gemini-exp-1206</t>
+          <t>codestral-2501</t>
         </is>
       </c>
       <c r="G151" t="inlineStr">
@@ -7386,15 +7386,15 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>003-smart_home</t>
+          <t>002-smart_home</t>
         </is>
       </c>
       <c r="C152" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>LoRa setup is implemented correctly using gRPC, and no mixing with WiFi parameters is present</t>
+          <t>WiFi setup implemented using Fabric Framework</t>
         </is>
       </c>
       <c r="E152" t="n">
@@ -7402,7 +7402,7 @@
       </c>
       <c r="F152" t="inlineStr">
         <is>
-          <t>gemini-exp-1206</t>
+          <t>codestral-2501</t>
         </is>
       </c>
       <c r="G152" t="inlineStr">
@@ -7432,23 +7432,23 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>003-smart_home</t>
+          <t>002-smart_home</t>
         </is>
       </c>
       <c r="C153" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>WiFi setup is attempted using file writing and not Fabric, also functions are present even if WiFi section not exists</t>
+          <t>Valid Python code and functions present</t>
         </is>
       </c>
       <c r="E153" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F153" t="inlineStr">
         <is>
-          <t>gemini-exp-1206</t>
+          <t>codestral-2501</t>
         </is>
       </c>
       <c r="G153" t="inlineStr">
@@ -7482,19 +7482,19 @@
         </is>
       </c>
       <c r="C154" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>JSON fields partially match with dictionary field in python code</t>
+          <t>Valid Python code with functions, calls, and sufficient lines.</t>
         </is>
       </c>
       <c r="E154" t="n">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="F154" t="inlineStr">
         <is>
-          <t>gemini-exp-1206</t>
+          <t>codestral-2501</t>
         </is>
       </c>
       <c r="G154" t="inlineStr">
@@ -7524,7 +7524,7 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>001-smart_home</t>
+          <t>003-smart_home</t>
         </is>
       </c>
       <c r="C155" t="n">
@@ -7532,7 +7532,7 @@
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>LoRa setup is correctly implemented using gRPC, and no WiFi parameters are used in LoRa config</t>
+          <t>No LoRa required, and no LoRa functions implemented</t>
         </is>
       </c>
       <c r="E155" t="n">
@@ -7540,7 +7540,7 @@
       </c>
       <c r="F155" t="inlineStr">
         <is>
-          <t>gemini-2.0-flash-exp</t>
+          <t>codestral-2501</t>
         </is>
       </c>
       <c r="G155" t="inlineStr">
@@ -7570,7 +7570,7 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>001-smart_home</t>
+          <t>003-smart_home</t>
         </is>
       </c>
       <c r="C156" t="n">
@@ -7578,7 +7578,7 @@
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>WiFi setup is implemented using Fabric Framework, and file writing is used just as a temp file to copy</t>
+          <t>WiFi setup implemented using Fabric Framework</t>
         </is>
       </c>
       <c r="E156" t="n">
@@ -7586,7 +7586,7 @@
       </c>
       <c r="F156" t="inlineStr">
         <is>
-          <t>gemini-2.0-flash-exp</t>
+          <t>codestral-2501</t>
         </is>
       </c>
       <c r="G156" t="inlineStr">
@@ -7616,7 +7616,7 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>001-smart_home</t>
+          <t>003-smart_home</t>
         </is>
       </c>
       <c r="C157" t="n">
@@ -7624,7 +7624,7 @@
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>JSON blueprint fields matches with dictionary field in Python code</t>
+          <t>Code provides correct Python functions and commands</t>
         </is>
       </c>
       <c r="E157" t="n">
@@ -7632,7 +7632,7 @@
       </c>
       <c r="F157" t="inlineStr">
         <is>
-          <t>gemini-2.0-flash-exp</t>
+          <t>codestral-2501</t>
         </is>
       </c>
       <c r="G157" t="inlineStr">
@@ -7662,28 +7662,28 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>002-smart_home</t>
+          <t>001-smart_home</t>
         </is>
       </c>
       <c r="C158" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>LoRa devices are present in the JSON, the python code correctly sets up LoRa using gRPC and no WiFi parameters are used. It implements python functions correctly.</t>
+          <t>Basic checks: functions, calls, var declarations, code lines, and execution presence</t>
         </is>
       </c>
       <c r="E158" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F158" t="inlineStr">
         <is>
-          <t>gemini-2.0-flash-exp</t>
+          <t>google/codegemma-7b-it</t>
         </is>
       </c>
       <c r="G158" t="inlineStr">
         <is>
-          <t>large</t>
+          <t>small</t>
         </is>
       </c>
       <c r="H158" t="inlineStr">
@@ -7708,28 +7708,28 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>002-smart_home</t>
+          <t>001-smart_home</t>
         </is>
       </c>
       <c r="C159" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>WiFi devices are present in the JSON, the python code correctly sets up WiFi using Fabric framework, avoiding file writing.</t>
+          <t>LoRa functions and setup via gRPC (unmatched)</t>
         </is>
       </c>
       <c r="E159" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F159" t="inlineStr">
         <is>
-          <t>gemini-2.0-flash-exp</t>
+          <t>google/codegemma-7b-it</t>
         </is>
       </c>
       <c r="G159" t="inlineStr">
         <is>
-          <t>large</t>
+          <t>small</t>
         </is>
       </c>
       <c r="H159" t="inlineStr">
@@ -7754,28 +7754,28 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>002-smart_home</t>
+          <t>001-smart_home</t>
         </is>
       </c>
       <c r="C160" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>JSON fields correctly match with dictionary fields in the python code, and the python code is correctly written and it implements correctly all functions.</t>
+          <t>WiFi functions and setup via Fabric Framework (unmatched)</t>
         </is>
       </c>
       <c r="E160" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F160" t="inlineStr">
         <is>
-          <t>gemini-2.0-flash-exp</t>
+          <t>google/codegemma-7b-it</t>
         </is>
       </c>
       <c r="G160" t="inlineStr">
         <is>
-          <t>large</t>
+          <t>small</t>
         </is>
       </c>
       <c r="H160" t="inlineStr">
@@ -7800,28 +7800,28 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>003-smart_home</t>
+          <t>001-smart_home</t>
         </is>
       </c>
       <c r="C161" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>LoRa devices are present in the code and gRPC is used correctly</t>
+          <t>General purpose functions (unmatched)</t>
         </is>
       </c>
       <c r="E161" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F161" t="inlineStr">
         <is>
-          <t>gemini-2.0-flash-exp</t>
+          <t>google/codegemma-7b-it</t>
         </is>
       </c>
       <c r="G161" t="inlineStr">
         <is>
-          <t>large</t>
+          <t>small</t>
         </is>
       </c>
       <c r="H161" t="inlineStr">
@@ -7846,28 +7846,28 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>003-smart_home</t>
+          <t>002-smart_home</t>
         </is>
       </c>
       <c r="C162" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>WiFi devices are present in the code and Fabric is used correctly</t>
+          <t>Basic syntax check and code structure</t>
         </is>
       </c>
       <c r="E162" t="n">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="F162" t="inlineStr">
         <is>
-          <t>gemini-2.0-flash-exp</t>
+          <t>google/codegemma-7b-it</t>
         </is>
       </c>
       <c r="G162" t="inlineStr">
         <is>
-          <t>large</t>
+          <t>small</t>
         </is>
       </c>
       <c r="H162" t="inlineStr">
@@ -7892,41 +7892,685 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
+          <t>002-smart_home</t>
+        </is>
+      </c>
+      <c r="C163" t="n">
+        <v>1</v>
+      </c>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>LoRa configuration and usage</t>
+        </is>
+      </c>
+      <c r="E163" t="n">
+        <v>60</v>
+      </c>
+      <c r="F163" t="inlineStr">
+        <is>
+          <t>google/codegemma-7b-it</t>
+        </is>
+      </c>
+      <c r="G163" t="inlineStr">
+        <is>
+          <t>small</t>
+        </is>
+      </c>
+      <c r="H163" t="inlineStr">
+        <is>
+          <t>real</t>
+        </is>
+      </c>
+      <c r="I163" t="inlineStr">
+        <is>
+          <t>gemini-2.0-flash-exp</t>
+        </is>
+      </c>
+      <c r="J163" t="inlineStr">
+        <is>
+          <t>large</t>
+        </is>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="1" t="n">
+        <v>162</v>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>002-smart_home</t>
+        </is>
+      </c>
+      <c r="C164" t="n">
+        <v>2</v>
+      </c>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t>WiFi configuration and usage</t>
+        </is>
+      </c>
+      <c r="E164" t="n">
+        <v>0</v>
+      </c>
+      <c r="F164" t="inlineStr">
+        <is>
+          <t>google/codegemma-7b-it</t>
+        </is>
+      </c>
+      <c r="G164" t="inlineStr">
+        <is>
+          <t>small</t>
+        </is>
+      </c>
+      <c r="H164" t="inlineStr">
+        <is>
+          <t>real</t>
+        </is>
+      </c>
+      <c r="I164" t="inlineStr">
+        <is>
+          <t>gemini-2.0-flash-exp</t>
+        </is>
+      </c>
+      <c r="J164" t="inlineStr">
+        <is>
+          <t>large</t>
+        </is>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="1" t="n">
+        <v>163</v>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>002-smart_home</t>
+        </is>
+      </c>
+      <c r="C165" t="n">
+        <v>3</v>
+      </c>
+      <c r="D165" t="inlineStr">
+        <is>
+          <t>Basic Python functions and commands</t>
+        </is>
+      </c>
+      <c r="E165" t="n">
+        <v>0</v>
+      </c>
+      <c r="F165" t="inlineStr">
+        <is>
+          <t>google/codegemma-7b-it</t>
+        </is>
+      </c>
+      <c r="G165" t="inlineStr">
+        <is>
+          <t>small</t>
+        </is>
+      </c>
+      <c r="H165" t="inlineStr">
+        <is>
+          <t>real</t>
+        </is>
+      </c>
+      <c r="I165" t="inlineStr">
+        <is>
+          <t>gemini-2.0-flash-exp</t>
+        </is>
+      </c>
+      <c r="J165" t="inlineStr">
+        <is>
+          <t>large</t>
+        </is>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="1" t="n">
+        <v>164</v>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
           <t>003-smart_home</t>
         </is>
       </c>
-      <c r="C163" t="n">
+      <c r="C166" t="n">
+        <v>0</v>
+      </c>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t>The PYTHON SOURCE-CODE does not contain python statements</t>
+        </is>
+      </c>
+      <c r="E166" t="n">
+        <v>0</v>
+      </c>
+      <c r="F166" t="inlineStr">
+        <is>
+          <t>google/codegemma-7b-it</t>
+        </is>
+      </c>
+      <c r="G166" t="inlineStr">
+        <is>
+          <t>small</t>
+        </is>
+      </c>
+      <c r="H166" t="inlineStr">
+        <is>
+          <t>real</t>
+        </is>
+      </c>
+      <c r="I166" t="inlineStr">
+        <is>
+          <t>gemini-2.0-flash-exp</t>
+        </is>
+      </c>
+      <c r="J166" t="inlineStr">
+        <is>
+          <t>large</t>
+        </is>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="1" t="n">
+        <v>165</v>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>003-smart_home</t>
+        </is>
+      </c>
+      <c r="C167" t="n">
+        <v>1</v>
+      </c>
+      <c r="D167" t="inlineStr">
+        <is>
+          <t>LoRa setup is not expected, but source-code is empty</t>
+        </is>
+      </c>
+      <c r="E167" t="n">
+        <v>0</v>
+      </c>
+      <c r="F167" t="inlineStr">
+        <is>
+          <t>google/codegemma-7b-it</t>
+        </is>
+      </c>
+      <c r="G167" t="inlineStr">
+        <is>
+          <t>small</t>
+        </is>
+      </c>
+      <c r="H167" t="inlineStr">
+        <is>
+          <t>real</t>
+        </is>
+      </c>
+      <c r="I167" t="inlineStr">
+        <is>
+          <t>gemini-2.0-flash-exp</t>
+        </is>
+      </c>
+      <c r="J167" t="inlineStr">
+        <is>
+          <t>large</t>
+        </is>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="1" t="n">
+        <v>166</v>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>003-smart_home</t>
+        </is>
+      </c>
+      <c r="C168" t="n">
+        <v>2</v>
+      </c>
+      <c r="D168" t="inlineStr">
+        <is>
+          <t>WiFi setup is expected, but source-code is empty</t>
+        </is>
+      </c>
+      <c r="E168" t="n">
+        <v>0</v>
+      </c>
+      <c r="F168" t="inlineStr">
+        <is>
+          <t>google/codegemma-7b-it</t>
+        </is>
+      </c>
+      <c r="G168" t="inlineStr">
+        <is>
+          <t>small</t>
+        </is>
+      </c>
+      <c r="H168" t="inlineStr">
+        <is>
+          <t>real</t>
+        </is>
+      </c>
+      <c r="I168" t="inlineStr">
+        <is>
+          <t>gemini-2.0-flash-exp</t>
+        </is>
+      </c>
+      <c r="J168" t="inlineStr">
+        <is>
+          <t>large</t>
+        </is>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="1" t="n">
+        <v>167</v>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>003-smart_home</t>
+        </is>
+      </c>
+      <c r="C169" t="n">
         <v>3</v>
       </c>
-      <c r="D163" t="inlineStr">
-        <is>
-          <t>All the fields in the JSON blueprint match with the dictionary fields in the python code</t>
-        </is>
-      </c>
-      <c r="E163" t="n">
-        <v>100</v>
-      </c>
-      <c r="F163" t="inlineStr">
-        <is>
-          <t>gemini-2.0-flash-exp</t>
-        </is>
-      </c>
-      <c r="G163" t="inlineStr">
-        <is>
-          <t>large</t>
-        </is>
-      </c>
-      <c r="H163" t="inlineStr">
-        <is>
-          <t>real</t>
-        </is>
-      </c>
-      <c r="I163" t="inlineStr">
-        <is>
-          <t>gemini-2.0-flash-exp</t>
-        </is>
-      </c>
-      <c r="J163" t="inlineStr">
+      <c r="D169" t="inlineStr">
+        <is>
+          <t>The PYTHON SOURCE-CODE does not contain python statements</t>
+        </is>
+      </c>
+      <c r="E169" t="n">
+        <v>0</v>
+      </c>
+      <c r="F169" t="inlineStr">
+        <is>
+          <t>google/codegemma-7b-it</t>
+        </is>
+      </c>
+      <c r="G169" t="inlineStr">
+        <is>
+          <t>small</t>
+        </is>
+      </c>
+      <c r="H169" t="inlineStr">
+        <is>
+          <t>real</t>
+        </is>
+      </c>
+      <c r="I169" t="inlineStr">
+        <is>
+          <t>gemini-2.0-flash-exp</t>
+        </is>
+      </c>
+      <c r="J169" t="inlineStr">
+        <is>
+          <t>large</t>
+        </is>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="1" t="n">
+        <v>168</v>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>001-smart_home</t>
+        </is>
+      </c>
+      <c r="C170" t="n">
+        <v>0</v>
+      </c>
+      <c r="D170" t="inlineStr">
+        <is>
+          <t>Basic code structure and function calls</t>
+        </is>
+      </c>
+      <c r="E170" t="n">
+        <v>0</v>
+      </c>
+      <c r="F170" t="inlineStr">
+        <is>
+          <t>codellama/CodeLlama-7b-Instruct-hf</t>
+        </is>
+      </c>
+      <c r="G170" t="inlineStr">
+        <is>
+          <t>small</t>
+        </is>
+      </c>
+      <c r="H170" t="inlineStr">
+        <is>
+          <t>real</t>
+        </is>
+      </c>
+      <c r="I170" t="inlineStr">
+        <is>
+          <t>gemini-2.0-flash-exp</t>
+        </is>
+      </c>
+      <c r="J170" t="inlineStr">
+        <is>
+          <t>large</t>
+        </is>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="1" t="n">
+        <v>169</v>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>001-smart_home</t>
+        </is>
+      </c>
+      <c r="C171" t="n">
+        <v>1</v>
+      </c>
+      <c r="D171" t="inlineStr">
+        <is>
+          <t>LoRa configuration not required</t>
+        </is>
+      </c>
+      <c r="E171" t="n">
+        <v>0</v>
+      </c>
+      <c r="F171" t="inlineStr">
+        <is>
+          <t>codellama/CodeLlama-7b-Instruct-hf</t>
+        </is>
+      </c>
+      <c r="G171" t="inlineStr">
+        <is>
+          <t>small</t>
+        </is>
+      </c>
+      <c r="H171" t="inlineStr">
+        <is>
+          <t>real</t>
+        </is>
+      </c>
+      <c r="I171" t="inlineStr">
+        <is>
+          <t>gemini-2.0-flash-exp</t>
+        </is>
+      </c>
+      <c r="J171" t="inlineStr">
+        <is>
+          <t>large</t>
+        </is>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="1" t="n">
+        <v>170</v>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>001-smart_home</t>
+        </is>
+      </c>
+      <c r="C172" t="n">
+        <v>2</v>
+      </c>
+      <c r="D172" t="inlineStr">
+        <is>
+          <t>WiFi setup is required in the blueprint, but NO code is provided</t>
+        </is>
+      </c>
+      <c r="E172" t="n">
+        <v>0</v>
+      </c>
+      <c r="F172" t="inlineStr">
+        <is>
+          <t>codellama/CodeLlama-7b-Instruct-hf</t>
+        </is>
+      </c>
+      <c r="G172" t="inlineStr">
+        <is>
+          <t>small</t>
+        </is>
+      </c>
+      <c r="H172" t="inlineStr">
+        <is>
+          <t>real</t>
+        </is>
+      </c>
+      <c r="I172" t="inlineStr">
+        <is>
+          <t>gemini-2.0-flash-exp</t>
+        </is>
+      </c>
+      <c r="J172" t="inlineStr">
+        <is>
+          <t>large</t>
+        </is>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="1" t="n">
+        <v>171</v>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>001-smart_home</t>
+        </is>
+      </c>
+      <c r="C173" t="n">
+        <v>3</v>
+      </c>
+      <c r="D173" t="inlineStr">
+        <is>
+          <t>The code is empty, hence no functions or commands are present.</t>
+        </is>
+      </c>
+      <c r="E173" t="n">
+        <v>0</v>
+      </c>
+      <c r="F173" t="inlineStr">
+        <is>
+          <t>codellama/CodeLlama-7b-Instruct-hf</t>
+        </is>
+      </c>
+      <c r="G173" t="inlineStr">
+        <is>
+          <t>small</t>
+        </is>
+      </c>
+      <c r="H173" t="inlineStr">
+        <is>
+          <t>real</t>
+        </is>
+      </c>
+      <c r="I173" t="inlineStr">
+        <is>
+          <t>gemini-2.0-flash-exp</t>
+        </is>
+      </c>
+      <c r="J173" t="inlineStr">
+        <is>
+          <t>large</t>
+        </is>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="1" t="n">
+        <v>172</v>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>002-smart_home</t>
+        </is>
+      </c>
+      <c r="C174" t="n">
+        <v>0</v>
+      </c>
+      <c r="D174" t="inlineStr">
+        <is>
+          <t>basic checks pass</t>
+        </is>
+      </c>
+      <c r="E174" t="n">
+        <v>100</v>
+      </c>
+      <c r="F174" t="inlineStr">
+        <is>
+          <t>codellama/CodeLlama-7b-Instruct-hf</t>
+        </is>
+      </c>
+      <c r="G174" t="inlineStr">
+        <is>
+          <t>small</t>
+        </is>
+      </c>
+      <c r="H174" t="inlineStr">
+        <is>
+          <t>real</t>
+        </is>
+      </c>
+      <c r="I174" t="inlineStr">
+        <is>
+          <t>gemini-2.0-flash-exp</t>
+        </is>
+      </c>
+      <c r="J174" t="inlineStr">
+        <is>
+          <t>large</t>
+        </is>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" s="1" t="n">
+        <v>173</v>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>002-smart_home</t>
+        </is>
+      </c>
+      <c r="C175" t="n">
+        <v>1</v>
+      </c>
+      <c r="D175" t="inlineStr">
+        <is>
+          <t>lora setup not required, and lora functions are absent</t>
+        </is>
+      </c>
+      <c r="E175" t="n">
+        <v>100</v>
+      </c>
+      <c r="F175" t="inlineStr">
+        <is>
+          <t>codellama/CodeLlama-7b-Instruct-hf</t>
+        </is>
+      </c>
+      <c r="G175" t="inlineStr">
+        <is>
+          <t>small</t>
+        </is>
+      </c>
+      <c r="H175" t="inlineStr">
+        <is>
+          <t>real</t>
+        </is>
+      </c>
+      <c r="I175" t="inlineStr">
+        <is>
+          <t>gemini-2.0-flash-exp</t>
+        </is>
+      </c>
+      <c r="J175" t="inlineStr">
+        <is>
+          <t>large</t>
+        </is>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" s="1" t="n">
+        <v>174</v>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>002-smart_home</t>
+        </is>
+      </c>
+      <c r="C176" t="n">
+        <v>2</v>
+      </c>
+      <c r="D176" t="inlineStr">
+        <is>
+          <t>wifi setup required and missing</t>
+        </is>
+      </c>
+      <c r="E176" t="n">
+        <v>0</v>
+      </c>
+      <c r="F176" t="inlineStr">
+        <is>
+          <t>codellama/CodeLlama-7b-Instruct-hf</t>
+        </is>
+      </c>
+      <c r="G176" t="inlineStr">
+        <is>
+          <t>small</t>
+        </is>
+      </c>
+      <c r="H176" t="inlineStr">
+        <is>
+          <t>real</t>
+        </is>
+      </c>
+      <c r="I176" t="inlineStr">
+        <is>
+          <t>gemini-2.0-flash-exp</t>
+        </is>
+      </c>
+      <c r="J176" t="inlineStr">
+        <is>
+          <t>large</t>
+        </is>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" s="1" t="n">
+        <v>175</v>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>002-smart_home</t>
+        </is>
+      </c>
+      <c r="C177" t="n">
+        <v>3</v>
+      </c>
+      <c r="D177" t="inlineStr">
+        <is>
+          <t>basic checks pass</t>
+        </is>
+      </c>
+      <c r="E177" t="n">
+        <v>100</v>
+      </c>
+      <c r="F177" t="inlineStr">
+        <is>
+          <t>codellama/CodeLlama-7b-Instruct-hf</t>
+        </is>
+      </c>
+      <c r="G177" t="inlineStr">
+        <is>
+          <t>small</t>
+        </is>
+      </c>
+      <c r="H177" t="inlineStr">
+        <is>
+          <t>real</t>
+        </is>
+      </c>
+      <c r="I177" t="inlineStr">
+        <is>
+          <t>gemini-2.0-flash-exp</t>
+        </is>
+      </c>
+      <c r="J177" t="inlineStr">
         <is>
           <t>large</t>
         </is>
